--- a/delta2/lib_p/pid-htool.xlsx
+++ b/delta2/lib_p/pid-htool.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E19C14-16D7-1A4F-84EA-CB14CC6F8BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20801F-3AED-0C4B-87B4-3174C6ADAE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="htool" sheetId="11" r:id="rId1"/>
-    <sheet name="blank" sheetId="10" r:id="rId2"/>
-    <sheet name="draft" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
   <si>
     <t>delta_pid</t>
   </si>
@@ -550,19 +548,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -592,45 +578,11 @@
     <tableColumn id="1" xr3:uid="{AB514F3C-8608-DB4C-8E75-9D2E53BD878E}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{F2F3F91B-6F6E-C64E-B4E5-39CE72852CBF}" name="delta_did"/>
     <tableColumn id="3" xr3:uid="{DA25C217-2F08-BC48-ACDE-CE3DF436F543}" name="name" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2393C479-16D7-EB40-8FEF-EC171BB4379F}" name="atk_tech" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{2393C479-16D7-EB40-8FEF-EC171BB4379F}" name="atk_tech" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{77FC7560-D092-A640-AC28-22C11D8F40DF}" name="atk_subtech"/>
     <tableColumn id="7" xr3:uid="{76F615A0-C0C9-3548-B167-63FD7AFE81EE}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{AECC7095-4787-FA4F-96E2-A1CF91401FFC}" name="delta_pattern" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{AECC7095-4787-FA4F-96E2-A1CF91401FFC}" name="delta_pattern" dataDxfId="0"/>
     <tableColumn id="9" xr3:uid="{E76E0E50-1733-7245-8D72-6D29F3EBD31C}" name="description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{648DE1ED-266C-5249-B2B0-B4C767542AEB}" name="Table1349" displayName="Table1349" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{488669B6-2C37-2646-B071-9B75C10A2383}" name="delta_pid"/>
-    <tableColumn id="2" xr3:uid="{3A6DE005-B68B-0F4B-9996-43A7274B7880}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{A55A330D-EDDC-4648-856A-DFAC3F7414CC}" name="name" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{AEA8BB35-018D-8E4E-A9C2-F72529462480}" name="atk_tech"/>
-    <tableColumn id="6" xr3:uid="{32D8905D-1EE5-E345-A24C-45F314E7EFAD}" name="atk_subtech"/>
-    <tableColumn id="7" xr3:uid="{CC5E8E5E-4E14-B648-94AC-FFEE038DF712}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{AAE7D1B1-996E-6540-B396-A527D65D3661}" name="delta_pattern" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{DE7C6199-41A1-3B41-A0D5-B455D6A5ACD8}" name="description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{552B96D9-7213-7C40-A38C-3A238BA41F9C}" name="Table1347" displayName="Table1347" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{929B5003-8C24-6740-A7B4-CE674B387A4E}" name="delta_pid"/>
-    <tableColumn id="2" xr3:uid="{F4D68548-D380-C544-9B73-EF722F7434CF}" name="delta_did"/>
-    <tableColumn id="3" xr3:uid="{D14584B8-BCF0-D74C-AE2E-CE4CF9AA7988}" name="name" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8A716950-1AA0-0B45-8CAF-D781916A0F66}" name="atk_tech"/>
-    <tableColumn id="6" xr3:uid="{CD90C0CC-B447-1F49-AC8C-4635A74BAFDF}" name="atk_subtech"/>
-    <tableColumn id="7" xr3:uid="{0E13C747-29D5-254D-A92C-D04442571F85}" name="dpid_type"/>
-    <tableColumn id="8" xr3:uid="{2DA1AF8F-18B4-7942-AD85-643AEFE67F86}" name="delta_pattern" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F9EBB780-9802-184E-AEC3-E273366EDC6B}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,8 +908,8 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:E4"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1978,131 +1930,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71B93C-7309-8F45-85F8-4DAE70B6663D}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B47520-4B8B-5146-853D-D79453A2ECCC}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="90.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/delta2/lib_p/pid-htool.xlsx
+++ b/delta2/lib_p/pid-htool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20801F-3AED-0C4B-87B4-3174C6ADAE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE859B-C1BB-8948-9B84-4F7E9EEB5F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{EE8A8287-073B-CF4A-B7DF-49D8A1BAE3DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="244">
   <si>
     <t>delta_pid</t>
   </si>
@@ -498,6 +498,276 @@
   </si>
   <si>
     <t xml:space="preserve"> t1047, t1059, t1021</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0001</t>
+  </si>
+  <si>
+    <t>Mimikatz Crypto Module</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'crypto::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'dpapi::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'event::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'kerberos::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'lsadump::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'misc::')</t>
+  </si>
+  <si>
+    <t>Mimikatz Dpapi Module</t>
+  </si>
+  <si>
+    <t>Mimikatz Event Module</t>
+  </si>
+  <si>
+    <t>Mimikatz Kerberos Module</t>
+  </si>
+  <si>
+    <t>Mimikatz LsaDump Module</t>
+  </si>
+  <si>
+    <t>Mimikatz Misc Module</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0002</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0003</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0004</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0005</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0006</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'net::')</t>
+  </si>
+  <si>
+    <t>Mimikatz Net Module</t>
+  </si>
+  <si>
+    <t>Mimikatz Privilege Module</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'privilege::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'process::')</t>
+  </si>
+  <si>
+    <t>Mimikatz Process Module</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'rpc::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'sekurlsa::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'service::')</t>
+  </si>
+  <si>
+    <t>Mimikatz Sekurlsa Module</t>
+  </si>
+  <si>
+    <t>Mimikatz Service Module</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'sid::')</t>
+  </si>
+  <si>
+    <t>Mimikatz Sid Module</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0007</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0008</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0009</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0010</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0011</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0012</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0013</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'token::')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'ts::')</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0014</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0015</t>
+  </si>
+  <si>
+    <t>Mimikatz Token Module</t>
+  </si>
+  <si>
+    <t>Mimikatz Ts Module</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'vault::')</t>
+  </si>
+  <si>
+    <t>Mimikatz Vault  Module</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0016</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0017</t>
+  </si>
+  <si>
+    <t>Invoke-Mimikatz</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'Invoke-Mimikatz')</t>
+  </si>
+  <si>
+    <t>file_create-windows_any</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0018</t>
+  </si>
+  <si>
+    <t>Mimikatz Default Install File Path</t>
+  </si>
+  <si>
+    <t>(file_path CONTAINS ['\mimikatz\Win32' OR '\mimikatz\x64\'  OR 'mimikatz'])</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0019</t>
+  </si>
+  <si>
+    <t>(file_name EQUALS 'mimidrv.sys')</t>
+  </si>
+  <si>
+    <t>(file_name EQUALS 'mimilib.dll')</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0020</t>
+  </si>
+  <si>
+    <t>Mimikatz IOC Mimidrv.sys</t>
+  </si>
+  <si>
+    <t>Mimikatz IOC Mimilib.dll</t>
+  </si>
+  <si>
+    <t>(file_name EQUALS 'mimilspool.dll')</t>
+  </si>
+  <si>
+    <t>(file_name EQUALS 'mimikatz.exe')</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0021</t>
+  </si>
+  <si>
+    <t>mimikatz-pid0022</t>
+  </si>
+  <si>
+    <t>Mimikatz IOC Mimispool.dll</t>
+  </si>
+  <si>
+    <t>Mimikatz Executable IOC</t>
+  </si>
+  <si>
+    <t>ngrok-pid0001</t>
+  </si>
+  <si>
+    <t>Ngrok Any Usage</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS 'Ngrok')</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'http'])</t>
+  </si>
+  <si>
+    <t>ngrok-pid0002</t>
+  </si>
+  <si>
+    <t>Ngrok HTTP Tunnel</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'tcp'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'tls'])</t>
+  </si>
+  <si>
+    <t>ngrok-pid0003</t>
+  </si>
+  <si>
+    <t>ngrok-pid0004</t>
+  </si>
+  <si>
+    <t>Ngrok TCP Tunnel</t>
+  </si>
+  <si>
+    <t>Ngrok TLS Tunnel</t>
+  </si>
+  <si>
+    <t>ngrok-pid0005</t>
+  </si>
+  <si>
+    <t>Ngrok Add Auth Token</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'config' AND 'add-authtoken'])</t>
+  </si>
+  <si>
+    <t>ngrok-pid0006</t>
+  </si>
+  <si>
+    <t>Ngrok Auth Token</t>
+  </si>
+  <si>
+    <t>ngrok-pid0007</t>
+  </si>
+  <si>
+    <t>Ngrok Start All Tunnels</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS [ 'Ngrok' AND  'authtoken'])</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'start' AND '--all'])</t>
+  </si>
+  <si>
+    <t>ngrok-pid0008</t>
+  </si>
+  <si>
+    <t>Ngrok Start Tunnel</t>
+  </si>
+  <si>
+    <t>(process_cmdline CONTAINS [ 'Ngrok' AND 'start')</t>
   </si>
 </sst>
 </file>
@@ -572,8 +842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEC3577-1F36-F84B-85AB-0609B6E8D29F}" name="Table13472" displayName="Table13472" ref="A1:H48" totalsRowShown="0">
-  <autoFilter ref="A1:H48" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADEC3577-1F36-F84B-85AB-0609B6E8D29F}" name="Table13472" displayName="Table13472" ref="A1:H78" totalsRowShown="0">
+  <autoFilter ref="A1:H78" xr:uid="{2ECF150C-73C0-5243-B337-9408B556D9AF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AB514F3C-8608-DB4C-8E75-9D2E53BD878E}" name="delta_pid"/>
     <tableColumn id="2" xr3:uid="{F2F3F91B-6F6E-C64E-B4E5-39CE72852CBF}" name="delta_did"/>
@@ -905,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88CE158-A863-114C-85D4-CCEADE7949A0}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1923,6 +2193,546 @@
         <v>102</v>
       </c>
     </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>241</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
